--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vtn-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vtn-Itga5.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>7.134618000000001</v>
+        <v>5.835941000000001</v>
       </c>
       <c r="H2">
-        <v>21.403854</v>
+        <v>17.507823</v>
       </c>
       <c r="I2">
-        <v>0.09653179209260773</v>
+        <v>0.03643643319117328</v>
       </c>
       <c r="J2">
-        <v>0.09653179209260773</v>
+        <v>0.03643643319117327</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.72417333333333</v>
+        <v>10.34761366666667</v>
       </c>
       <c r="N2">
-        <v>86.17251999999999</v>
+        <v>31.042841</v>
       </c>
       <c r="O2">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="P2">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="Q2">
-        <v>204.93600409912</v>
+        <v>60.38806284946034</v>
       </c>
       <c r="R2">
-        <v>1844.42403689208</v>
+        <v>543.492565645143</v>
       </c>
       <c r="S2">
-        <v>0.04086440880849228</v>
+        <v>0.008380210123017538</v>
       </c>
       <c r="T2">
-        <v>0.04086440880849228</v>
+        <v>0.008380210123017538</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>7.134618000000001</v>
+        <v>5.835941000000001</v>
       </c>
       <c r="H3">
-        <v>21.403854</v>
+        <v>17.507823</v>
       </c>
       <c r="I3">
-        <v>0.09653179209260773</v>
+        <v>0.03643643319117328</v>
       </c>
       <c r="J3">
-        <v>0.09653179209260773</v>
+        <v>0.03643643319117327</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>91.709587</v>
       </c>
       <c r="O3">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692173</v>
       </c>
       <c r="P3">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692174</v>
       </c>
       <c r="Q3">
-        <v>218.104290060922</v>
+        <v>178.4039129554557</v>
       </c>
       <c r="R3">
-        <v>1962.938610548298</v>
+        <v>1605.635216599101</v>
       </c>
       <c r="S3">
-        <v>0.04349017592645532</v>
+        <v>0.02475757967368894</v>
       </c>
       <c r="T3">
-        <v>0.04349017592645532</v>
+        <v>0.02475757967368894</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>7.134618000000001</v>
+        <v>5.835941000000001</v>
       </c>
       <c r="H4">
-        <v>21.403854</v>
+        <v>17.507823</v>
       </c>
       <c r="I4">
-        <v>0.09653179209260773</v>
+        <v>0.03643643319117328</v>
       </c>
       <c r="J4">
-        <v>0.09653179209260773</v>
+        <v>0.03643643319117327</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.559531999999999</v>
+        <v>4.073058666666666</v>
       </c>
       <c r="N4">
-        <v>25.678596</v>
+        <v>12.219176</v>
       </c>
       <c r="O4">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859702</v>
       </c>
       <c r="P4">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859703</v>
       </c>
       <c r="Q4">
-        <v>61.068991078776</v>
+        <v>23.77013006820534</v>
       </c>
       <c r="R4">
-        <v>549.620919708984</v>
+        <v>213.931170613848</v>
       </c>
       <c r="S4">
-        <v>0.01217720735766013</v>
+        <v>0.003298643394466793</v>
       </c>
       <c r="T4">
-        <v>0.01217720735766013</v>
+        <v>0.003298643394466793</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.50798033333333</v>
+        <v>17.50798033333334</v>
       </c>
       <c r="H5">
-        <v>52.52394099999999</v>
+        <v>52.52394100000001</v>
       </c>
       <c r="I5">
-        <v>0.2368839813846793</v>
+        <v>0.1093102818770573</v>
       </c>
       <c r="J5">
-        <v>0.2368839813846793</v>
+        <v>0.1093102818770573</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.72417333333333</v>
+        <v>10.34761366666667</v>
       </c>
       <c r="N5">
-        <v>86.17251999999999</v>
+        <v>31.042841</v>
       </c>
       <c r="O5">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="P5">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="Q5">
-        <v>502.9022618112577</v>
+        <v>181.1658165729312</v>
       </c>
       <c r="R5">
-        <v>4526.120356301319</v>
+        <v>1630.492349156381</v>
       </c>
       <c r="S5">
-        <v>0.1002791271729441</v>
+        <v>0.02514085629429632</v>
       </c>
       <c r="T5">
-        <v>0.1002791271729441</v>
+        <v>0.02514085629429633</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.50798033333333</v>
+        <v>17.50798033333334</v>
       </c>
       <c r="H6">
-        <v>52.52394099999999</v>
+        <v>52.52394100000001</v>
       </c>
       <c r="I6">
-        <v>0.2368839813846793</v>
+        <v>0.1093102818770573</v>
       </c>
       <c r="J6">
-        <v>0.2368839813846793</v>
+        <v>0.1093102818770573</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>91.709587</v>
       </c>
       <c r="O6">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692173</v>
       </c>
       <c r="P6">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692174</v>
       </c>
       <c r="Q6">
-        <v>535.2165485247074</v>
+        <v>535.2165485247075</v>
       </c>
       <c r="R6">
-        <v>4816.948936722366</v>
+        <v>4816.948936722368</v>
       </c>
       <c r="S6">
-        <v>0.1067226226847165</v>
+        <v>0.07427340646998985</v>
       </c>
       <c r="T6">
-        <v>0.1067226226847165</v>
+        <v>0.07427340646998985</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.50798033333333</v>
+        <v>17.50798033333334</v>
       </c>
       <c r="H7">
-        <v>52.52394099999999</v>
+        <v>52.52394100000001</v>
       </c>
       <c r="I7">
-        <v>0.2368839813846793</v>
+        <v>0.1093102818770573</v>
       </c>
       <c r="J7">
-        <v>0.2368839813846793</v>
+        <v>0.1093102818770573</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.559531999999999</v>
+        <v>4.073058666666666</v>
       </c>
       <c r="N7">
-        <v>25.678596</v>
+        <v>12.219176</v>
       </c>
       <c r="O7">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859702</v>
       </c>
       <c r="P7">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859703</v>
       </c>
       <c r="Q7">
-        <v>149.8601179185373</v>
+        <v>71.3110310325129</v>
       </c>
       <c r="R7">
-        <v>1348.741061266836</v>
+        <v>641.799279292616</v>
       </c>
       <c r="S7">
-        <v>0.02988223152701876</v>
+        <v>0.009896019112771107</v>
       </c>
       <c r="T7">
-        <v>0.02988223152701875</v>
+        <v>0.009896019112771107</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>49.26691733333334</v>
+        <v>136.8238143333333</v>
       </c>
       <c r="H8">
-        <v>147.800752</v>
+        <v>410.471443</v>
       </c>
       <c r="I8">
-        <v>0.666584226522713</v>
+        <v>0.8542532849317694</v>
       </c>
       <c r="J8">
-        <v>0.666584226522713</v>
+        <v>0.8542532849317694</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>28.72417333333333</v>
+        <v>10.34761366666667</v>
       </c>
       <c r="N8">
-        <v>86.17251999999999</v>
+        <v>31.042841</v>
       </c>
       <c r="O8">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="P8">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="Q8">
-        <v>1415.151473081671</v>
+        <v>1415.799971121063</v>
       </c>
       <c r="R8">
-        <v>12736.36325773504</v>
+        <v>12742.19974008956</v>
       </c>
       <c r="S8">
-        <v>0.2821823748157964</v>
+        <v>0.1964742813448717</v>
       </c>
       <c r="T8">
-        <v>0.2821823748157964</v>
+        <v>0.1964742813448717</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>49.26691733333334</v>
+        <v>136.8238143333333</v>
       </c>
       <c r="H9">
-        <v>147.800752</v>
+        <v>410.471443</v>
       </c>
       <c r="I9">
-        <v>0.666584226522713</v>
+        <v>0.8542532849317694</v>
       </c>
       <c r="J9">
-        <v>0.666584226522713</v>
+        <v>0.8542532849317694</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>91.709587</v>
       </c>
       <c r="O9">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692173</v>
       </c>
       <c r="P9">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692174</v>
       </c>
       <c r="Q9">
-        <v>1506.082880467714</v>
+        <v>4182.68516809156</v>
       </c>
       <c r="R9">
-        <v>13554.74592420942</v>
+        <v>37644.16651282404</v>
       </c>
       <c r="S9">
-        <v>0.3003141726972345</v>
+        <v>0.5804422088255385</v>
       </c>
       <c r="T9">
-        <v>0.3003141726972345</v>
+        <v>0.5804422088255387</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>49.26691733333334</v>
+        <v>136.8238143333333</v>
       </c>
       <c r="H10">
-        <v>147.800752</v>
+        <v>410.471443</v>
       </c>
       <c r="I10">
-        <v>0.666584226522713</v>
+        <v>0.8542532849317694</v>
       </c>
       <c r="J10">
-        <v>0.666584226522713</v>
+        <v>0.8542532849317694</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.559531999999999</v>
+        <v>4.073058666666666</v>
       </c>
       <c r="N10">
-        <v>25.678596</v>
+        <v>12.219176</v>
       </c>
       <c r="O10">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859702</v>
       </c>
       <c r="P10">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859703</v>
       </c>
       <c r="Q10">
-        <v>421.7017554560213</v>
+        <v>557.2914227767742</v>
       </c>
       <c r="R10">
-        <v>3795.315799104192</v>
+        <v>5015.622804990968</v>
       </c>
       <c r="S10">
-        <v>0.0840876790096821</v>
+        <v>0.07733679476135912</v>
       </c>
       <c r="T10">
-        <v>0.0840876790096821</v>
+        <v>0.07733679476135913</v>
       </c>
     </row>
   </sheetData>
